--- a/ConvertedEqual/Alaska_Converted.xlsx
+++ b/ConvertedEqual/Alaska_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -798,6 +798,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2704,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2778,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2852,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2926,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -3000,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3074,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3148,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3222,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3296,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3370,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3444,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3518,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3592,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3666,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3740,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3814,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3888,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3962,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4036,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4110,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4184,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4258,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4332,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4406,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4480,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4554,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4628,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4702,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4776,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4850,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4924,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4998,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5072,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5146,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5220,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5294,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5368,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5442,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5516,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5590,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>0.9230769230692309</v>
+        <v>0.9166666666583335</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5664,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5738,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5812,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5886,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5960,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -6034,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6108,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6182,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6256,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6330,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6404,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6478,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6552,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6626,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6700,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6774,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6848,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6922,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6996,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -7070,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7144,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7218,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7292,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7366,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7440,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7514,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7588,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7662,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7736,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7810,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7884,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7958,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8032,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -8106,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8180,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8254,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8328,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8402,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8476,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8550,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8624,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="X104">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8698,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8772,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8846,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8920,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="X108">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8994,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9068,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9142,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9216,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -9290,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -9364,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9438,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9512,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9586,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9660,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9734,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9808,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9882,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9956,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -10030,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -10104,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="X124">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -10178,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="X125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -10252,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10326,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10400,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="X128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10474,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="X129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10548,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="X130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10622,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="X131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10696,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="X132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10770,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10844,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10918,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10992,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="X136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -11066,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -11140,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="X138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -11214,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -11288,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11362,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="X141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -11436,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="X142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11510,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="X143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -11584,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="X144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11658,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11732,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="X146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -11806,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11880,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -11954,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="X149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -12028,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -12102,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -12176,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -12250,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="X153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -12324,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -12398,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12472,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -12546,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12620,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="X158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -12694,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12768,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -12842,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -12916,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -12990,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="X163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -13064,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="X164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -13138,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -13212,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="X166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -13286,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -13360,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -13434,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13508,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -13582,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="X171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -13656,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -13730,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13804,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -13878,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -13952,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14026,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14100,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14174,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -14248,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -14322,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="X181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -14396,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -14470,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -14544,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="X184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -14618,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -14692,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -14766,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -14840,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="X188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -14914,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -14988,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15062,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15136,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15210,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="X193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15284,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="X194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15358,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="X195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15432,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15506,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="X197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15580,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="X198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15654,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="X199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -15728,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="X200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -15802,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -15876,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -15950,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16024,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16098,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16172,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16246,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="X207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16320,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="X208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16394,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="X209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16468,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="X210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16542,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16616,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="X212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16690,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="X213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16764,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16838,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="X215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16912,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="X216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16986,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="X217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -17060,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="X218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17134,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="X219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17208,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17282,7 +17318,895 @@
         <v>0</v>
       </c>
       <c r="X221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
+      <c r="A222" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
+      <c r="A223" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
+      <c r="A224" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
+      <c r="A225" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
+      <c r="A226" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
+      <c r="A227" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
+      <c r="A228" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
+      <c r="A229" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
+      <c r="A230" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
+      <c r="A231" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
+      <c r="A232" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
+      <c r="A233" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
